--- a/docs/artifacts/rules/domain-expert-rules-template.xlsx
+++ b/docs/artifacts/rules/domain-expert-rules-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niva/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikola/Repos/neat/docs/artifacts/rules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412CDBA8-E5AA-C34F-83A8-1E640109F0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6750F2E1-DAFB-5B43-9FC9-6371A595BC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,19 @@
   <definedNames>
     <definedName name="tmp" localSheetId="1">Properties!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="Z3F79i+GSmghql5egpxFNc760MBSfvKvIbvqMIbZv8E="/>
     </ext>
@@ -31,7 +42,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{525ED13E-77EB-734B-94C6-09A3F1A16102}" name="tmp" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/niva/Downloads/tmp.csv" decimal="," thousands=" " tab="0" semicolon="1">
+    <textPr sourceFile="/Users/niva/Downloads/tmp.csv" decimal="," thousands=" " tab="0" semicolon="1">
       <textFields count="17">
         <textField/>
         <textField/>
@@ -57,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>role</t>
   </si>
@@ -106,12 +117,54 @@
   <si>
     <t>Maximum number of values that the property can hold. If no value is provided, the default value is inf, which means that the property can hold any number of values (listable).</t>
   </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>external_id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>space to which model is to be saved</t>
+  </si>
+  <si>
+    <t>external id of model</t>
+  </si>
+  <si>
+    <t>version of data model</t>
+  </si>
+  <si>
+    <t>human readable name of model, optional</t>
+  </si>
+  <si>
+    <t>description of model, optional</t>
+  </si>
+  <si>
+    <t>when model was created, optional</t>
+  </si>
+  <si>
+    <t>when model was updated, optional</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +232,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -221,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -245,6 +305,9 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,10 +530,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:S990"/>
+  <dimension ref="A1:S992"/>
   <sheetViews>
-    <sheetView zoomScale="172" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -499,8 +562,12 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="C3" s="10"/>
+      <c r="A3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -519,8 +586,12 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="C4" s="10"/>
+      <c r="A4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -539,8 +610,12 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -559,8 +634,12 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -579,8 +658,12 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -599,8 +682,12 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -619,8 +706,12 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -4659,10 +4750,44 @@
       <c r="S210" s="1"/>
     </row>
     <row r="211" spans="1:19" ht="15.75" customHeight="1">
-      <c r="C211" s="11"/>
+      <c r="A211" s="1"/>
+      <c r="C211" s="10"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+      <c r="P211" s="1"/>
+      <c r="Q211" s="1"/>
+      <c r="R211" s="1"/>
+      <c r="S211" s="1"/>
     </row>
     <row r="212" spans="1:19" ht="15.75" customHeight="1">
-      <c r="C212" s="11"/>
+      <c r="A212" s="1"/>
+      <c r="C212" s="10"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
+      <c r="P212" s="1"/>
+      <c r="Q212" s="1"/>
+      <c r="R212" s="1"/>
+      <c r="S212" s="1"/>
     </row>
     <row r="213" spans="1:19" ht="15.75" customHeight="1">
       <c r="C213" s="11"/>
@@ -6997,6 +7122,12 @@
     </row>
     <row r="990" spans="3:3" ht="15.75" customHeight="1">
       <c r="C990" s="11"/>
+    </row>
+    <row r="991" spans="3:3" ht="15.75" customHeight="1">
+      <c r="C991" s="11"/>
+    </row>
+    <row r="992" spans="3:3" ht="15.75" customHeight="1">
+      <c r="C992" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -7011,7 +7142,7 @@
   </sheetPr>
   <dimension ref="A1:L928"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
